--- a/Eagle/Partslist/Partslist-v6.1.xlsx
+++ b/Eagle/Partslist/Partslist-v6.1.xlsx
@@ -5,24 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dood\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dood\Documents\#PERSO\Electronique\dawa\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDEE5FD-F7FC-4DD0-834A-47DEF38B4177}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8FE6E8-A6DA-4AF6-A074-7A26D72CA1B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">Feuil2!$A$1:$F$68</definedName>
+    <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">Feuil1!$A$1:$F$74</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="290">
   <si>
     <t>Qty</t>
   </si>
@@ -201,9 +205,6 @@
     <t>INDUCTOR, American symbol</t>
   </si>
   <si>
-    <t>10ÂµF</t>
-  </si>
-  <si>
     <t>C18, C50</t>
   </si>
   <si>
@@ -222,30 +223,18 @@
     <t>SMC_B</t>
   </si>
   <si>
-    <t>C27, C39</t>
-  </si>
-  <si>
     <t>POLARIZED CAPACITOR, European symbol</t>
   </si>
   <si>
-    <t>C29, C41</t>
-  </si>
-  <si>
     <t>1k</t>
   </si>
   <si>
     <t>R15, R16, R53, R54</t>
   </si>
   <si>
-    <t>1ÂµF</t>
-  </si>
-  <si>
     <t>C22, C32</t>
   </si>
   <si>
-    <t>2.2ÂµF</t>
-  </si>
-  <si>
     <t>C37, C49, C52, C53, C55</t>
   </si>
   <si>
@@ -312,9 +301,6 @@
     <t>R13, R17, R18, R19, R20, R21, R22, R25, R33, R34, R49, R50</t>
   </si>
   <si>
-    <t>4.7ÂµF</t>
-  </si>
-  <si>
     <t>C6, C8, C23</t>
   </si>
   <si>
@@ -330,9 +316,6 @@
     <t>C10</t>
   </si>
   <si>
-    <t>47ÂµF</t>
-  </si>
-  <si>
     <t>CPOL-EUD</t>
   </si>
   <si>
@@ -429,9 +412,6 @@
     <t>U14</t>
   </si>
   <si>
-    <t>QUADRUPLE FET BUS SWITCH 2.5-V/3.3-V LOW-VOLTAGE BUS SWITCH WITH 5-V-TOLERANT LEVEL SHIFTER</t>
-  </si>
-  <si>
     <t>DM3AT-SF-PEJM5</t>
   </si>
   <si>
@@ -474,9 +454,6 @@
     <t>LM2734Y</t>
   </si>
   <si>
-    <t>LM2736Y</t>
-  </si>
-  <si>
     <t>SOT23-6</t>
   </si>
   <si>
@@ -516,9 +493,6 @@
     <t>IC1, IC6</t>
   </si>
   <si>
-    <t>http://ww1.microchip.com/downloads/en/DeviceDoc/21952a.pdf</t>
-  </si>
-  <si>
     <t>MCP73831/OT</t>
   </si>
   <si>
@@ -558,12 +532,6 @@
     <t>SMD EMI Suppression Ferrite Beads</t>
   </si>
   <si>
-    <t>MLX90614</t>
-  </si>
-  <si>
-    <t>MLX90614_</t>
-  </si>
-  <si>
     <t>TO-39</t>
   </si>
   <si>
@@ -672,12 +640,6 @@
     <t>DUAL SCHMITT-TRIGGER BUFFER</t>
   </si>
   <si>
-    <t>TFT_2.4</t>
-  </si>
-  <si>
-    <t>U$4</t>
-  </si>
-  <si>
     <t>TLV2374</t>
   </si>
   <si>
@@ -703,16 +665,276 @@
   </si>
   <si>
     <t>C1, C2, C5, C7, C12, C13, C16, C17, C20, C25, C28, C30, C36, C38, C40, C9, C11, C15, C19, C21, C24, C35, C47, C48, C51, C56, C57, C58</t>
+  </si>
+  <si>
+    <t>4.7µF</t>
+  </si>
+  <si>
+    <t>2.2µF</t>
+  </si>
+  <si>
+    <t>10µF</t>
+  </si>
+  <si>
+    <t>47µF</t>
+  </si>
+  <si>
+    <t>Micro USB connector</t>
+  </si>
+  <si>
+    <t>SMA connector</t>
+  </si>
+  <si>
+    <t>1µF</t>
+  </si>
+  <si>
+    <t>GPS antenna</t>
+  </si>
+  <si>
+    <t>Power connector</t>
+  </si>
+  <si>
+    <t>Enclosure kit</t>
+  </si>
+  <si>
+    <t>PCB kit</t>
+  </si>
+  <si>
+    <t>QUADRUPLE FET BUS SWITCH 2.5-V/3.3-V</t>
+  </si>
+  <si>
+    <t>All PCB for DAWA (2 infrared temperature sensor)</t>
+  </si>
+  <si>
+    <t>3D Printed with PETG</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>MOUSER</t>
+  </si>
+  <si>
+    <t>C27, C39, C29, C41</t>
+  </si>
+  <si>
+    <t>ALIEXPRESS</t>
+  </si>
+  <si>
+    <t>Atmel ICE BASIC</t>
+  </si>
+  <si>
+    <t>You need it to first flash Arduino bootloader on SAMD21 (or you need to buy SAMD21 with bootloader on it !)</t>
+  </si>
+  <si>
+    <t>NOT ON PCB</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>RJ45 cables (0,5+1+2m)</t>
+  </si>
+  <si>
+    <t>Softtouch buttons</t>
+  </si>
+  <si>
+    <t>3mm hole PCB spacer</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32320716046.html?spm=a2g0s.9042311.0.0.27426c37aIuRJm</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32955009400.html?spm=a2g0s.9042311.0.0.316a6c37wDnOT8</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32274753116.html?spm=a2g0s.9042311.0.0.5e5f4c4dSjd4JF</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32829778871.html?spm=a2g0s.9042311.0.0.27424c4dNNMwNQ</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32376850604.html?spm=a2g0s.9042311.0.0.27424c4dNNMwNQ</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32795241952.html?spm=a2g0s.9042311.0.0.27424c4dXyVsTd</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32915507427.html?spm=a2g0s.9042311.0.0.27424c4dXyVsTd</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32728160713.html?spm=a2g0s.9042311.0.0.27424c4dXyVsTd</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32790388586.html?spm=a2g0s.9042311.0.0.27424c4dXyVsTd</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32842202101.html?spm=a2g0s.9042311.0.0.27424c4dXyVsTd</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32658704895.html?spm=a2g0s.9042311.0.0.27424c4d7JbT8R</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32631796141.html?spm=a2g0s.9042311.0.0.27424c4d7JbT8R</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32779564868.html?spm=a2g0s.9042311.0.0.27424c4d7JbT8R</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32884059737.html?spm=a2g0s.9042311.0.0.27424c4d7JbT8R</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32802912865.html?spm=a2g0s.9042311.0.0.27424c4d7JbT8R</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32228842714.html?spm=a2g0s.9042311.0.0.27424c4d7JbT8R</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32822645110.html?spm=a2g0s.9042311.0.0.27424c4dBywEPY</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/2002442142.html?spm=a2g0s.9042311.0.0.27424c4dkcI8bP</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32239137511.html?spm=a2g0s.9042311.0.0.27424c4dzM3I7q</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32820917628.html?spm=a2g0s.9042311.0.0.27424c4diOwAsr</t>
+  </si>
+  <si>
+    <t>JLCPCB</t>
+  </si>
+  <si>
+    <t>HOMEMADE</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32913502650.html?spm=a2g0s.9042311.0.0.27424c4dXN6ine</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32759414721.html?spm=a2g0s.9042311.0.0.27424c4d0jrmnK</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32945891297.html?spm=a2g0s.9042311.0.0.27424c4dlCWdv3</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32694652292.html?spm=a2g0s.9042311.0.0.27424c4d0a2JnM</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32704068968.html?spm=a2g0s.9042311.0.0.68254c4dGCYlrO</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32987702593.html?spm=a2g0o.cart.0.0.13c93c00cd9LSJ</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/33012426179.html?spm=a2g0o.cart.0.0.3db13c00PXhM7w</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32832523571.html?spm=a2g0o.cart.0.0.3db13c00PXhM7w</t>
+  </si>
+  <si>
+    <t>Inputs connectors (2M)</t>
+  </si>
+  <si>
+    <t>Inputs connectors (2F)</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32955292314.html?spm=a2g0o.cart.0.0.55563c00YwAhGV</t>
+  </si>
+  <si>
+    <t>MLX90614 BCC</t>
+  </si>
+  <si>
+    <t>URL (for example)</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>Total price</t>
+  </si>
+  <si>
+    <t>Buy Qty</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32687163490.html?spm=a2g0o.cart.0.0.6e973c008PnrMs</t>
+  </si>
+  <si>
+    <t>https://www.mouser.fr/ProductDetail/667-EEE-HC1E470XP</t>
+  </si>
+  <si>
+    <t>https://www.mouser.fr/ProductDetail/81-LQG18HN27NJ00D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.fr/ProductDetail/428-200458-MG01</t>
+  </si>
+  <si>
+    <t>https://www.mouser.fr/ProductDetail/595-CD40106BPWR</t>
+  </si>
+  <si>
+    <t>https://www.mouser.fr/ProductDetail/595-SN74AHC1G125DBVR</t>
+  </si>
+  <si>
+    <t>https://www.mouser.fr/ProductDetail/579-24AA02E48TIOT</t>
+  </si>
+  <si>
+    <t>https://www.mouser.fr/ProductDetail/556-ATSAMD21G18A-AU</t>
+  </si>
+  <si>
+    <t>https://www.mouser.fr/ProductDetail/652-CD1206-S01575</t>
+  </si>
+  <si>
+    <t>https://www.mouser.fr/ProductDetail/652-SRR0604-100ML</t>
+  </si>
+  <si>
+    <t>https://www.mouser.fr/ProductDetail/652-MH2029-300Y</t>
+  </si>
+  <si>
+    <t>https://www.mouser.fr/ProductDetail/581-TAJB106K025RNJ</t>
+  </si>
+  <si>
+    <t>https://www.mouser.fr/ProductDetail/71-CRCW0603-52.3K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.fr/ProductDetail/556-ATATMELICE-BASIC</t>
+  </si>
+  <si>
+    <t>https://www.mouser.fr/ProductDetail/579-MCP23017-E-SS</t>
+  </si>
+  <si>
+    <t>https://www.mouser.fr/ProductDetail/926-LMV321M5X-NOPB</t>
+  </si>
+  <si>
+    <t>Buy price (incl. Shipping)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -735,17 +957,71 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="22">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -776,14 +1052,20 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DonnéesExternes_1" connectionId="1" xr16:uid="{06C645B5-5D75-4F84-8011-94F295C24099}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="41">
-    <queryTableFields count="6">
+  <queryTableRefresh nextId="47" unboundColumnsRight="6">
+    <queryTableFields count="12">
       <queryTableField id="1" name="Qty" tableColumnId="1"/>
       <queryTableField id="2" name="Value" tableColumnId="2"/>
       <queryTableField id="3" name="Device" tableColumnId="3"/>
       <queryTableField id="4" name="Package" tableColumnId="4"/>
       <queryTableField id="5" name="Parts" tableColumnId="5"/>
       <queryTableField id="6" name="Description" tableColumnId="6"/>
+      <queryTableField id="41" dataBound="0" tableColumnId="7"/>
+      <queryTableField id="42" dataBound="0" tableColumnId="8"/>
+      <queryTableField id="43" dataBound="0" tableColumnId="9"/>
+      <queryTableField id="44" dataBound="0" tableColumnId="10"/>
+      <queryTableField id="45" dataBound="0" tableColumnId="11"/>
+      <queryTableField id="46" dataBound="0" tableColumnId="12"/>
     </queryTableFields>
     <queryTableDeletedFields count="34">
       <deletedField name="APPLICATIONS"/>
@@ -826,18 +1108,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{718EBAD1-8340-4ED2-BE7D-C06B11F66FA1}" name="DAWA_6_1" displayName="DAWA_6_1" ref="A1:F68" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F68" xr:uid="{2C1AA6E1-3ACA-4EBA-9F31-6C3E26B9989E}"/>
-  <sortState ref="A2:F68">
-    <sortCondition ref="C1:C68"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{718EBAD1-8340-4ED2-BE7D-C06B11F66FA1}" name="DAWA_6_1" displayName="DAWA_6_1" ref="A1:L75" tableType="queryTable" totalsRowCount="1">
+  <autoFilter ref="A1:L74" xr:uid="{2C1AA6E1-3ACA-4EBA-9F31-6C3E26B9989E}"/>
+  <sortState ref="A2:L74">
+    <sortCondition ref="G1:G74"/>
   </sortState>
-  <tableColumns count="6">
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{E17DEC8F-01BF-4914-9811-A26CF9659C0C}" uniqueName="1" name="Qty" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{BA873E50-2088-4EF8-93B9-8F0805003365}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{31DC935A-B82B-4A3C-8DBA-7D1B643821F7}" uniqueName="3" name="Device" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{5D11D7AE-E80F-49E0-97D8-3C67D9F1B3F4}" uniqueName="4" name="Package" queryTableFieldId="4" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{3AF1586D-0EE4-4FF9-97AE-4C2515FD7D78}" uniqueName="5" name="Parts" queryTableFieldId="5" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{5F6ACCC7-9720-4E33-B942-32AEC809A3AC}" uniqueName="6" name="Description" queryTableFieldId="6" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{BA873E50-2088-4EF8-93B9-8F0805003365}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="21" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{31DC935A-B82B-4A3C-8DBA-7D1B643821F7}" uniqueName="3" name="Device" queryTableFieldId="3" dataDxfId="20" totalsRowDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{5D11D7AE-E80F-49E0-97D8-3C67D9F1B3F4}" uniqueName="4" name="Package" queryTableFieldId="4" dataDxfId="19" totalsRowDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{3AF1586D-0EE4-4FF9-97AE-4C2515FD7D78}" uniqueName="5" name="Parts" queryTableFieldId="5" dataDxfId="18" totalsRowDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{5F6ACCC7-9720-4E33-B942-32AEC809A3AC}" uniqueName="6" name="Description" queryTableFieldId="6" dataDxfId="17" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{0570800B-4654-4701-AB8D-6E0EB96EB9BF}" uniqueName="7" name="Supplier" queryTableFieldId="41" dataDxfId="16" totalsRowDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{725E999A-B308-41EA-BA27-538D4E0E3024}" uniqueName="8" name="URL (for example)" queryTableFieldId="42" dataDxfId="15" totalsRowDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{02B17953-C12D-49D3-A386-99D46603619B}" uniqueName="9" name="Buy price (incl. Shipping)" queryTableFieldId="43" dataDxfId="14" totalsRowDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{07639A97-A867-4DA7-AF39-9C516C99690A}" uniqueName="10" name="Buy Qty" queryTableFieldId="44" dataDxfId="13" totalsRowDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{C258E628-007F-4C32-8B33-8A068E36B465}" uniqueName="11" name="Unit Price" queryTableFieldId="45" dataDxfId="12" totalsRowDxfId="1">
+      <calculatedColumnFormula>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{FAE37AC9-2A58-4587-ADF4-1AF20068DA48}" uniqueName="12" name="Total price" totalsRowFunction="custom" queryTableFieldId="46" dataDxfId="11" totalsRowDxfId="0">
+      <calculatedColumnFormula>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</calculatedColumnFormula>
+      <totalsRowFormula>SUM(DAWA_6_1[Total price])</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1106,10 +1399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAA0FCA-AEF5-42E2-AF1A-F8B659666F5A}">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,11 +1411,17 @@
     <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="113.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1"/>
+    <col min="6" max="6" width="99.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="96.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1141,48 +1440,104 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="J2" s="1">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>3.85E-2</v>
+      </c>
+      <c r="L2" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>102</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="J3" s="1">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>7.3499999999999996E-2</v>
+      </c>
+      <c r="L3" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1201,13 +1556,33 @@
       <c r="F4" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>100</v>
+      </c>
+      <c r="K4" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.01</v>
+      </c>
+      <c r="L4" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>34</v>
@@ -1216,18 +1591,38 @@
         <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>100</v>
+      </c>
+      <c r="K5" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.01</v>
+      </c>
+      <c r="L5" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>34</v>
@@ -1236,18 +1631,38 @@
         <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>100</v>
+      </c>
+      <c r="K6" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.01</v>
+      </c>
+      <c r="L6" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>35</v>
@@ -1256,18 +1671,38 @@
         <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>100</v>
+      </c>
+      <c r="K7" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.01</v>
+      </c>
+      <c r="L7" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>35</v>
@@ -1276,78 +1711,158 @@
         <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>100</v>
+      </c>
+      <c r="K8" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.01</v>
+      </c>
+      <c r="L8" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>110</v>
+        <v>207</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>100</v>
+      </c>
+      <c r="K9" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.01</v>
+      </c>
+      <c r="L9" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>100</v>
+      </c>
+      <c r="K10" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.01</v>
+      </c>
+      <c r="L10" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
       <c r="B11" s="1" t="s">
-        <v>127</v>
+        <v>210</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>100</v>
+      </c>
+      <c r="K11" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.01</v>
+      </c>
+      <c r="L11" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>41</v>
@@ -1356,18 +1871,38 @@
         <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>100</v>
+      </c>
+      <c r="K12" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.01</v>
+      </c>
+      <c r="L12" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>41</v>
@@ -1376,18 +1911,38 @@
         <v>42</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>100</v>
+      </c>
+      <c r="K13" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.01</v>
+      </c>
+      <c r="L13" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>41</v>
@@ -1396,18 +1951,38 @@
         <v>42</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>100</v>
+      </c>
+      <c r="K14" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.01</v>
+      </c>
+      <c r="L14" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>209</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>41</v>
@@ -1416,18 +1991,38 @@
         <v>42</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>100</v>
+      </c>
+      <c r="K15" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.01</v>
+      </c>
+      <c r="L15" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>41</v>
@@ -1436,18 +2031,38 @@
         <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>100</v>
+      </c>
+      <c r="K16" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.01</v>
+      </c>
+      <c r="L16" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>208</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>41</v>
@@ -1456,1049 +2071,2374 @@
         <v>42</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>100</v>
+      </c>
+      <c r="K17" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.01</v>
+      </c>
+      <c r="L17" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>100</v>
+      </c>
+      <c r="K18" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.01</v>
+      </c>
+      <c r="L18" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2.57</v>
+      </c>
+      <c r="J19" s="1">
+        <v>20</v>
+      </c>
+      <c r="K19" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.1285</v>
+      </c>
+      <c r="L19" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.38550000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I20" s="1">
+        <v>12.85</v>
+      </c>
+      <c r="J20" s="1">
+        <v>20</v>
+      </c>
+      <c r="K20" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.64249999999999996</v>
+      </c>
+      <c r="L20" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.64249999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I21" s="1">
+        <v>4.16</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>4.16</v>
+      </c>
+      <c r="L21" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>5</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>100</v>
+      </c>
+      <c r="K22" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.01</v>
+      </c>
+      <c r="L22" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="J23" s="1">
+        <v>20</v>
+      </c>
+      <c r="K23" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.06</v>
+      </c>
+      <c r="L23" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="I24" s="1">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="J24" s="1">
+        <v>10</v>
+      </c>
+      <c r="K24" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>1.6940000000000002</v>
+      </c>
+      <c r="L24" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>1.6940000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I25" s="1">
+        <v>3.56</v>
+      </c>
+      <c r="J25" s="1">
+        <v>10</v>
+      </c>
+      <c r="K25" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="L25" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.35599999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2.86</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>2.86</v>
+      </c>
+      <c r="L26" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="E27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2.59</v>
+      </c>
+      <c r="J27" s="1">
+        <v>20</v>
+      </c>
+      <c r="K27" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.1295</v>
+      </c>
+      <c r="L27" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.1295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I28" s="1">
+        <v>14.83</v>
+      </c>
+      <c r="J28" s="1">
+        <v>5</v>
+      </c>
+      <c r="K28" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>2.9660000000000002</v>
+      </c>
+      <c r="L28" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>2.9660000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I29" s="1">
+        <v>14.64</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>14.64</v>
+      </c>
+      <c r="L29" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>14.64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I30" s="1">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="J30" s="1">
+        <v>100</v>
+      </c>
+      <c r="K30" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>2.4900000000000002E-2</v>
+      </c>
+      <c r="L30" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>9.9600000000000008E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I31" s="1">
+        <v>2.69</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>2.69</v>
+      </c>
+      <c r="L31" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1.43</v>
+      </c>
+      <c r="J32" s="1">
+        <v>2</v>
+      </c>
+      <c r="K32" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="L32" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I33" s="1">
+        <v>12</v>
+      </c>
+      <c r="J33" s="1">
+        <v>10</v>
+      </c>
+      <c r="K33" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>1.2</v>
+      </c>
+      <c r="L33" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I34" s="1">
+        <v>15.16</v>
+      </c>
+      <c r="J34" s="1">
+        <v>20</v>
+      </c>
+      <c r="K34" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="L34" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I35" s="1">
+        <v>3.41</v>
+      </c>
+      <c r="J35" s="1">
+        <v>10</v>
+      </c>
+      <c r="K35" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="L35" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I36" s="1">
+        <v>7.17</v>
+      </c>
+      <c r="J36" s="1">
+        <v>100</v>
+      </c>
+      <c r="K36" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>7.17E-2</v>
+      </c>
+      <c r="L36" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.1434</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="J37" s="1">
+        <v>20</v>
+      </c>
+      <c r="K37" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="L37" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>7.6499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1.31</v>
+      </c>
+      <c r="J38" s="1">
+        <v>10</v>
+      </c>
+      <c r="K38" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="L38" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="E39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1">
+        <v>100</v>
+      </c>
+      <c r="K39" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.01</v>
+      </c>
+      <c r="L39" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1</v>
+      </c>
+      <c r="J40" s="1">
+        <v>100</v>
+      </c>
+      <c r="K40" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.01</v>
+      </c>
+      <c r="L40" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1">
+        <v>100</v>
+      </c>
+      <c r="K41" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.01</v>
+      </c>
+      <c r="L41" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>14</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1">
+        <v>100</v>
+      </c>
+      <c r="K42" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.01</v>
+      </c>
+      <c r="L42" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1">
+        <v>100</v>
+      </c>
+      <c r="K43" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.01</v>
+      </c>
+      <c r="L43" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1">
+        <v>100</v>
+      </c>
+      <c r="K44" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.01</v>
+      </c>
+      <c r="L44" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>7</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1</v>
+      </c>
+      <c r="J45" s="1">
+        <v>100</v>
+      </c>
+      <c r="K45" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.01</v>
+      </c>
+      <c r="L45" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1">
+        <v>100</v>
+      </c>
+      <c r="K46" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.01</v>
+      </c>
+      <c r="L46" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>3</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="B47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1</v>
+      </c>
+      <c r="J47" s="1">
         <v>100</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>5</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="K47" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.01</v>
+      </c>
+      <c r="L47" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="G48" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="J48" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="K48" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="L48" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.16999999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>2</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>2</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="G49" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I49" s="1">
+        <v>17.46</v>
+      </c>
+      <c r="J49" s="1">
+        <v>10</v>
+      </c>
+      <c r="K49" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>1.746</v>
+      </c>
+      <c r="L49" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>1.746</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>4</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D50" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>2</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="F50" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I50" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="J50" s="1">
+        <v>10</v>
+      </c>
+      <c r="K50" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.22599999999999998</v>
+      </c>
+      <c r="L50" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.90399999999999991</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>105</v>
+        <v>213</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I51" s="1">
+        <v>1.72</v>
+      </c>
+      <c r="J51" s="1">
+        <v>10</v>
+      </c>
+      <c r="K51" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="L51" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>26</v>
+        <v>195</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>27</v>
+        <v>195</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>28</v>
+        <v>196</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I52" s="1">
+        <v>9.76</v>
+      </c>
+      <c r="J52" s="1">
+        <v>50</v>
+      </c>
+      <c r="K52" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.19519999999999998</v>
+      </c>
+      <c r="L52" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.39039999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I53" s="1">
+        <v>7.73</v>
+      </c>
+      <c r="J53" s="1">
+        <v>10</v>
+      </c>
+      <c r="K53" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="L53" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.77300000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I54" s="1">
+        <v>3.12</v>
+      </c>
+      <c r="J54" s="1">
+        <v>1</v>
+      </c>
+      <c r="K54" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>3.12</v>
+      </c>
+      <c r="L54" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>2</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>3</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>4</v>
-      </c>
       <c r="B55" s="1" t="s">
-        <v>64</v>
+        <v>212</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="J55" s="1">
+        <v>20</v>
+      </c>
+      <c r="K55" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>4.0999999999999995E-2</v>
+      </c>
+      <c r="L55" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>8.199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I56" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="J56" s="1">
+        <v>10</v>
+      </c>
+      <c r="K56" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.16699999999999998</v>
+      </c>
+      <c r="L56" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.16699999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>88</v>
+        <v>268</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>27</v>
+        <v>268</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>28</v>
+        <v>163</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>90</v>
+        <v>268</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I57" s="1">
+        <v>7.57</v>
+      </c>
+      <c r="J57" s="1">
+        <v>1</v>
+      </c>
+      <c r="K57" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>7.57</v>
+      </c>
+      <c r="L57" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>15.14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I58" s="1">
+        <v>5</v>
+      </c>
+      <c r="J58" s="1">
+        <v>1</v>
+      </c>
+      <c r="K58" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>5</v>
+      </c>
+      <c r="L58" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I59" s="1">
+        <v>104</v>
+      </c>
+      <c r="J59" s="1">
+        <v>10</v>
+      </c>
+      <c r="K59" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>10.4</v>
+      </c>
+      <c r="L59" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>205</v>
+        <v>67</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>205</v>
+        <v>68</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>205</v>
+        <v>69</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>206</v>
+        <v>70</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1</v>
+      </c>
+      <c r="K60" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="L60" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.19800000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="G61" t="s">
+        <v>223</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="J61" s="1">
+        <v>1</v>
+      </c>
+      <c r="K61" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="L61" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>207</v>
+        <v>111</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>207</v>
+        <v>111</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>208</v>
+        <v>112</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>209</v>
+        <v>113</v>
       </c>
       <c r="F62" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G62" t="s">
+        <v>223</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="I62" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="J62" s="1">
+        <v>1</v>
+      </c>
+      <c r="K62" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>2.75</v>
+      </c>
+      <c r="L62" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G63" t="s">
+        <v>223</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="J63" s="1">
+        <v>1</v>
+      </c>
+      <c r="K63" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="L63" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G64" t="s">
+        <v>223</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="J64" s="1">
+        <v>1</v>
+      </c>
+      <c r="K64" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.11</v>
+      </c>
+      <c r="L64" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>4</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>1</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>1</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>1</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="C65" s="1" t="s">
-        <v>217</v>
+        <v>58</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>218</v>
+        <v>59</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="G65" t="s">
+        <v>223</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="J65" s="1">
+        <v>1</v>
+      </c>
+      <c r="K65" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="L65" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>1.524</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G66" t="s">
+        <v>223</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0.113</v>
+      </c>
+      <c r="J66" s="1">
+        <v>1</v>
+      </c>
+      <c r="K66" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.113</v>
+      </c>
+      <c r="L66" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G67" t="s">
+        <v>223</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0.158</v>
+      </c>
+      <c r="J67" s="1">
+        <v>1</v>
+      </c>
+      <c r="K67" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.158</v>
+      </c>
+      <c r="L67" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G68" t="s">
+        <v>223</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="J68" s="1">
+        <v>1</v>
+      </c>
+      <c r="K68" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="L68" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.71599999999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G69" t="s">
+        <v>223</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="J69" s="1">
+        <v>1</v>
+      </c>
+      <c r="K69" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="L69" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.47299999999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>2</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>1</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="B70" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" t="s">
+        <v>223</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="J70" s="1">
+        <v>1</v>
+      </c>
+      <c r="K70" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L70" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1">
+        <v>1</v>
+      </c>
+      <c r="K71" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0</v>
+      </c>
+      <c r="L71" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G72" t="s">
+        <v>223</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="J72" s="1">
+        <v>1</v>
+      </c>
+      <c r="K72" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="L72" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G73" t="s">
+        <v>223</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="I73" s="1">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="J73" s="1">
+        <v>1</v>
+      </c>
+      <c r="K73" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="L73" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>3</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>172</v>
+      <c r="B74" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G74" t="s">
+        <v>223</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I74" s="1">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="J74" s="1">
+        <v>1</v>
+      </c>
+      <c r="K74" s="1">
+        <f>DAWA_6_1[[#This Row],[Buy price (incl. Shipping)]]/DAWA_6_1[[#This Row],[Buy Qty]]</f>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="L74" s="1">
+        <f>DAWA_6_1[[#This Row],[Unit Price]]*DAWA_6_1[[#This Row],[Qty]]</f>
+        <v>0.14700000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1">
+        <f>SUM(DAWA_6_1[Total price])</f>
+        <v>91.449399999999997</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H30" r:id="rId1" xr:uid="{E0F5A35D-DD78-44E9-B66D-F1F7BB87786E}"/>
+    <hyperlink ref="H49" r:id="rId2" xr:uid="{F03C8EE0-DBEA-4258-A222-1C330566AE4A}"/>
+    <hyperlink ref="H24" r:id="rId3" xr:uid="{5900E4BC-9002-4117-8E3F-95C82EF066C0}"/>
+    <hyperlink ref="H28" r:id="rId4" xr:uid="{B3921928-DE67-4AB5-94EF-97F17C84DEA0}"/>
+    <hyperlink ref="H36" r:id="rId5" xr:uid="{1B18A848-A88B-471F-BCE9-D4BE1C836643}"/>
+    <hyperlink ref="H38" r:id="rId6" xr:uid="{A370E525-978D-45E9-8EBC-B770CAF45DB5}"/>
+    <hyperlink ref="H37" r:id="rId7" xr:uid="{BFC4A1D3-993B-4925-A625-587E626056B4}"/>
+    <hyperlink ref="H25" r:id="rId8" xr:uid="{058F6816-FD7F-4A0E-A83F-9DC7BCF76F94}"/>
+    <hyperlink ref="H23" r:id="rId9" xr:uid="{F114D0B5-5F27-4FF2-B2C1-8B85BE3E9EE4}"/>
+    <hyperlink ref="H19" r:id="rId10" xr:uid="{7C06EE4E-B3F7-49D5-8B82-C74BC31FDD80}"/>
+    <hyperlink ref="H31" r:id="rId11" xr:uid="{920FFDBD-1B2B-40B4-AECF-A643BE03DDB5}"/>
+    <hyperlink ref="H51" r:id="rId12" xr:uid="{9BA4B5C7-5CCE-4E2A-8246-3490FBE1A3EB}"/>
+    <hyperlink ref="H56" r:id="rId13" xr:uid="{088D376A-1BDB-467C-8353-2E1ECFA41D1D}"/>
+    <hyperlink ref="H53" r:id="rId14" xr:uid="{05357077-D7EF-4888-8022-73F8776FD762}"/>
+    <hyperlink ref="H21" r:id="rId15" xr:uid="{62045D33-FD97-4F8B-B9A7-53C3C0ADD0A2}"/>
+    <hyperlink ref="H29" r:id="rId16" xr:uid="{51C92FC3-F073-4936-9722-BF1D19FCAB41}"/>
+    <hyperlink ref="H48" r:id="rId17" xr:uid="{E9B382F8-5E5A-4EE6-BB05-2FA9AA873F2C}"/>
+    <hyperlink ref="H20" r:id="rId18" xr:uid="{17E01759-21D6-43CA-9552-7355569DBD50}"/>
+    <hyperlink ref="H32" r:id="rId19" xr:uid="{1BF840B2-AF63-45DD-9076-1462BF92E8A7}"/>
+    <hyperlink ref="H34" r:id="rId20" xr:uid="{121884EB-68F3-4789-9C02-175C455634B4}"/>
+    <hyperlink ref="H35" r:id="rId21" xr:uid="{EF28DDB8-6E7B-4FEE-A511-79A8E624ED3B}"/>
+    <hyperlink ref="H27" r:id="rId22" xr:uid="{1D2E6DC0-2A3B-4FCC-8166-377372D19AE0}"/>
+    <hyperlink ref="H55" r:id="rId23" xr:uid="{AAF844AA-C875-4951-A28C-5CED8D346C58}"/>
+    <hyperlink ref="H54" r:id="rId24" xr:uid="{47F5D020-CD32-48D2-9D3A-DB7F5D86DAEC}"/>
+    <hyperlink ref="H50" r:id="rId25" xr:uid="{DA348867-3954-4A12-9E21-A308F649F2D3}"/>
+    <hyperlink ref="H26" r:id="rId26" xr:uid="{A18CC28A-C0CB-4B06-97C3-5668760895FE}"/>
+    <hyperlink ref="H2" r:id="rId27" xr:uid="{FE016370-0BE5-4861-8730-2EDE4ED5DF9E}"/>
+    <hyperlink ref="H3" r:id="rId28" xr:uid="{7F2038AA-6053-4D2B-9D74-4E3375A308CC}"/>
+    <hyperlink ref="H52" r:id="rId29" xr:uid="{8DC7321C-B654-4519-9E51-415BDD3B7892}"/>
+    <hyperlink ref="H57" r:id="rId30" xr:uid="{A90100D4-11F0-4485-A136-EF8D68C83FC6}"/>
+    <hyperlink ref="H64" r:id="rId31" xr:uid="{A5381D05-3F22-4499-BC25-43513D8E56FA}"/>
+    <hyperlink ref="H67" r:id="rId32" xr:uid="{1E0B120C-AB47-461D-80D8-4FC5A0AA57EB}"/>
+    <hyperlink ref="H72" r:id="rId33" xr:uid="{1BA205BB-D0D9-4B5B-B6EA-C48934C683F7}"/>
+    <hyperlink ref="H63" r:id="rId34" xr:uid="{A1AB1FAF-68B5-469C-BC17-1514D8268DED}"/>
+    <hyperlink ref="H61" r:id="rId35" xr:uid="{BBC6C544-ABC8-4149-BDAA-B25B20321A4C}"/>
+    <hyperlink ref="H60" r:id="rId36" xr:uid="{D0F06C0C-D194-4334-ABF1-E3D360F6225C}"/>
+    <hyperlink ref="H62" r:id="rId37" xr:uid="{02EA45E2-4256-40E9-B76C-C07B0095117E}"/>
+    <hyperlink ref="H66" r:id="rId38" xr:uid="{8DDB3BFE-EFAB-4076-A7FF-6211D6A93E10}"/>
+    <hyperlink ref="H69" r:id="rId39" xr:uid="{2C310CC4-0806-4A7A-B6C8-990EF1282B0F}"/>
+    <hyperlink ref="H74" r:id="rId40" xr:uid="{13C33CEF-8589-49F8-A49D-8D046D64D4AB}"/>
+    <hyperlink ref="H65" r:id="rId41" xr:uid="{13F91118-BC03-4C60-86F4-ECE5B6FA5715}"/>
+    <hyperlink ref="H73" r:id="rId42" xr:uid="{A471AEB5-BE69-4B2C-8E85-1A77DC8668E1}"/>
+    <hyperlink ref="H71" r:id="rId43" xr:uid="{42416AF5-D4BE-405B-B9D9-A2CE6E0C9260}"/>
+    <hyperlink ref="H70" r:id="rId44" xr:uid="{24C71D24-B351-43E7-AFB7-9988A3CE2EA3}"/>
+    <hyperlink ref="H68" r:id="rId45" xr:uid="{16F49B6B-9763-4646-B0C4-75BC341E09BB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId47"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
